--- a/数据整理/stocks/A股/深证主板/001201-东瑞股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/001201-东瑞股份.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -887,7 +888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -898,17 +899,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -918,13 +939,557 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>012719</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5336</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012421</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3529</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009011</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏睿阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3425</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002669</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3323</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005888</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3069</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005889</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2211</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013626</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1683</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013627</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004050</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>69.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012720</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012422</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004051</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>69.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>10</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>2.7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/001201-东瑞股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/001201-东瑞股份.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,433 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005888</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏新兴消费混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>16.37</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.96</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.7858</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.46</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>012719</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏新兴经济一年持有期混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>21.62</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.19</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.7394</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009011</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华夏睿阳一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>17.06</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>82.70</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4163</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>012421</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华夏优加生活混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>8.67</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.98</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3832</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005889</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华夏新兴消费混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.96</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2040</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>013626</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华夏周期驱动混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.84</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0713</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>013627</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华夏周期驱动混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.84</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0430</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>012720</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华夏新兴经济一年持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.19</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0356</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005161</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华商上游产业股票</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>89.02</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0130</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>012422</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华夏优加生活混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>92.98</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0075</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1436,64 +1068,432 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.46</v>
+          <t>005888</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7858</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.7</v>
+          <t>012719</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7394</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009011</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏睿阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4163</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012421</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3832</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005889</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2040</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013626</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013627</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012720</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012422</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/001201-东瑞股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/001201-东瑞股份.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>2.46</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>10</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>2.7</v>
       </c>
     </row>
@@ -515,6 +532,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012421</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2672</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005888</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2449</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005889</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1642</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012422</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1062,7 +1287,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/001201-东瑞股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/001201-东瑞股份.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.68</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>2.46</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>10</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>2.7</v>
       </c>
     </row>
@@ -532,6 +549,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012421</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1826</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012422</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -739,7 +888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1287,7 +1436,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
